--- a/statistiche/bpic11RandomForestCounterfactualsWithMax_2/1129.xlsx
+++ b/statistiche/bpic11RandomForestCounterfactualsWithMax_2/1129.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GP13"/>
+  <dimension ref="A1:GP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,967 +458,967 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>387070A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>378216A</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>370737C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>370489S</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AC380077</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AC10207</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>AC613000</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>AC370606</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>370407C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>AC386002</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AC370442</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>370707S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AC355401</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>376480A</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>376482S</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AC410500</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>AC370716</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>377498A</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>AC378458</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>370111S</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>377121S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>AC372441</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AC378858</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AC612000</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>370505A</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>AC370423</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>AC375075</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370129</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>AC372417</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>AC370415</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>AC359999</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AC370443</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AC370403</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>370701S</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>339988E</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>AC337105</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>AC378607</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>370403S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AC379999</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370416</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>376487.0</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>AC355111</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>339099B</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>370737Z</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>AC709999</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>370488S</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>AC387070</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>AC378449</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>370136A</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>370421S</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>372417S</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>337190C</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370440</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>339995C</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>370488J</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>AC386041</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>379000A</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>AC389190</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>370401S</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>AC710290</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>375003A</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>AC370421</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>AC372439</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>378858S</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>AC356132</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC355409</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>AC370116</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AC410100</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AC413489</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AC411100</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337441</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>AC413461</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>389073.0</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>AC610001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>302282.0</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>370828A</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>AC387001</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>AC389102</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>AC388130</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>AC386001</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>AC355427</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>370401C</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>372440A</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>330001B</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370424</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>AC370711</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>378452S</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>370737S</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>AC10107</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>376400.0</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AC370419</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC378546</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>370407.0</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>AC614400</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>AC375518</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>370443S</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>AC350507</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>AC390520</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>AC370135</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>370420S</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>370402S</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>375138A</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>AC378720</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>378609S</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370437</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>AC337440</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>AC378808</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>AC378729</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>372454A</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>370466C</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>370480A</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>339171A</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>370715S</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>AC378149</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>AC355201</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>370715A</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>AC376406</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC337480</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>AC387090</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>376482C</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>AC387002</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>AC350503</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337220</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>AC355105</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>370488T</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>378609R</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC380000</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>370711S</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>386001Z</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>370501.0</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>370712B</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>378609K</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>337419C</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>AC40014</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>AC686405</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>AC415100</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC356134</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>370488G</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>AC375004</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>AC619600</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>370465Q</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>AC419100</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>370419S</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC20113</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>AC372414</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>370423T</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>302211.0</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>AC375005</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370111</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>AC337451</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>339488A</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>AC356133</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>302213E</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>370426S</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>AC10213</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>370442S</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>AC378403</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370604</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>387042A</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>376425A</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>AC386042</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>AC339160</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390183</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>AC20189</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>AC390001</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>378453S</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>AC370420</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>AC370172</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AC378449</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>370423T</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>372417S</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>AC378403</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>AC10213</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>376482C</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>AC378431</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>370488E</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>339486E</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>AC370000</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>AC388170</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>AC370401</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370402</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>370488H</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>AC390003</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>AC386902</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390004</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>AC337452</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>AC339956</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>AC710170</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>370504A</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370701</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>376467E</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>AC390550</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>AC378452</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AC376406</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AC370423</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>387042A</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>AC372441</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>AC390520</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>AC372439</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>AC378458</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>AC40016</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>AC393628</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>370504A</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>370712B</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>387070A</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>AC370000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>AC40014</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>AC415100</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>AC337480</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>AC410100</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>AC337440</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>372454A</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AC390001</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>AC337220</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>AC389102</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>AC378858</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>370737C</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>376467E</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>370488G</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>AC386041</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>370737S</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>AC386902</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>370421S</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>AC710170</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>AC390004</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>372440A</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>370828A</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>AC386001</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>370715A</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>330001B</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>386001Z</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>378609R</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>AC355201</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>AC410500</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC386002</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>AC10307</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>378453A</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>AC10113</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370606</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>370465Q</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>370420S</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>376487.0</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>389073.0</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>AC380077</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>AC378546</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>AC370424</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC411100</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>370401S</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>339988E</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>AC378607</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>376482S</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>370419S</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>370488H</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>376425A</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>AC614400</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>378216A</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>AC387070</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>AC370129</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>AC375075</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>AC370443</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>AC378431</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>377498A</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC610001</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>AC390183</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370416</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>337190C</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>370111S</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>AC339956</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>302213E</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>AC355105</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>AC10207</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>302211.0</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC375005</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>370480A</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>AC355401</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>AC390550</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>AC370135</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>370488J</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>AC355427</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>378609S</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>AC387001</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>AC413461</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>AC337452</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>AC413489</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>AC389190</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>AC356132</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>339995C</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>AC370420</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC379999</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>AC337105</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>339486E</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>AC378808</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>370402S</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>370442S</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370716</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>AC337441</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>AC356133</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>AC359999</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370401</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>AC372414</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>AC370419</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>370701S</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>AC378149</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>370715S</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>AC370415</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378729</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>AC380000</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>302282.0</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>378452S</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>AC20189</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>370711S</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>AC350503</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>AC387090</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>AC355409</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>370501.0</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>AC370403</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>370466C</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>AC612000</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>AC355111</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>376480A</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370442</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>AC390003</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>378858S</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>AC20113</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378720</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>AC40016</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>339099B</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>AC388130</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>370505A</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>AC709999</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>370737Z</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>377121S</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>370488T</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>370403S</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>AC613000</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>AC339160</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>370407.0</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>AC388170</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>AC350507</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>337419C</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370111</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>370488S</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370437</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>370407C</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>370489S</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>378453S</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370421</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>AC370116</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>AC372417</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>AC356134</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC10307</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>370707S</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>AC375518</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>AC686405</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>379000A</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>AC370440</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>AC375004</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370604</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>AC619600</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>AC337451</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>AC370711</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>376400.0</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>370488E</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>AC386042</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>375138A</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>339171A</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>370443S</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>370426S</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>AC387002</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>370401C</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>AC370701</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>375003A</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>378453A</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>378609K</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>AC710290</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>AC10107</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>AC370402</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>339488A</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>370136A</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="ED2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE2" s="2" t="n">
         <v>0</v>
@@ -2162,17 +2162,17 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>1</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
@@ -2438,145 +2438,145 @@
         <v>0</v>
       </c>
       <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
         <v>1</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>0</v>
@@ -2709,74 +2709,74 @@
         <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT4" s="2" t="n">
         <v>0</v>
       </c>
@@ -3042,130 +3042,130 @@
         <v>0</v>
       </c>
       <c r="ED4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT4" s="2" t="n">
         <v>0</v>
@@ -3286,484 +3286,484 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>1</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" t="n">
         <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
       </c>
       <c r="FT5" t="n">
         <v>0</v>
@@ -3911,74 +3911,74 @@
         <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT6" s="2" t="n">
         <v>0</v>
       </c>
@@ -4244,62 +4244,62 @@
         <v>0</v>
       </c>
       <c r="ED6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="EE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EW6" s="2" t="n">
         <v>0</v>
       </c>
@@ -4310,64 +4310,64 @@
         <v>0</v>
       </c>
       <c r="EZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS6" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="FA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS6" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT6" s="2" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -4509,74 +4509,74 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
         <v>1</v>
       </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
@@ -4821,151 +4821,151 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" t="n">
         <v>1</v>
       </c>
-      <c r="DX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED7" t="n">
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
         <v>1</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>0</v>
       </c>
       <c r="FT7" t="n">
         <v>0</v>
@@ -5113,74 +5113,74 @@
         <v>0</v>
       </c>
       <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT8" s="2" t="n">
         <v>0</v>
       </c>
@@ -5395,181 +5395,181 @@
         <v>0</v>
       </c>
       <c r="DM8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED8" s="2" t="n">
+      <c r="EW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT8" s="2" t="n">
         <v>0</v>
@@ -5711,26 +5711,26 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>1</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -5993,182 +5993,182 @@
         <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
         <v>1</v>
       </c>
-      <c r="DO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED9" t="n">
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="n">
         <v>1</v>
       </c>
-      <c r="EE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>0</v>
-      </c>
       <c r="FT9" t="n">
         <v>0</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>0</v>
@@ -6315,65 +6315,65 @@
         <v>0</v>
       </c>
       <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ10" s="2" t="n">
         <v>0</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="2" t="n">
         <v>0</v>
@@ -6558,220 +6558,220 @@
         <v>0</v>
       </c>
       <c r="CZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM10" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="DN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED10" s="2" t="n">
+      <c r="EW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT10" s="2" t="n">
         <v>0</v>
@@ -6919,74 +6919,74 @@
         <v>0</v>
       </c>
       <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="n">
+      <c r="AQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AT11" s="2" t="n">
         <v>0</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2" t="n">
         <v>0</v>
@@ -7162,220 +7162,220 @@
         <v>0</v>
       </c>
       <c r="CZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="DN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED11" s="2" t="n">
+      <c r="EW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS11" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="EE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="FT11" s="2" t="n">
         <v>0</v>
@@ -7463,212 +7463,212 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2" t="n">
+      <c r="AQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2" t="n">
+      <c r="AT12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="BT12" s="2" t="n">
         <v>0</v>
       </c>
@@ -7766,152 +7766,152 @@
         <v>0</v>
       </c>
       <c r="CZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="DN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="DO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED12" s="2" t="n">
+      <c r="EP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="EE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EW12" s="2" t="n">
         <v>0</v>
       </c>
@@ -7922,65 +7922,65 @@
         <v>0</v>
       </c>
       <c r="EZ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="FA12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="FT12" s="2" t="n">
         <v>0</v>
       </c>
@@ -8046,612 +8046,14 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="GO12" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="GO12" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="GP12" s="2" t="inlineStr">
         <is>
           <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN13" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="GO13" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="GP13" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
         </is>
       </c>
     </row>
